--- a/database/seeders/data/CashAccount.xlsx
+++ b/database/seeders/data/CashAccount.xlsx
@@ -406,7 +406,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
